--- a/2.Design/Template/Thong_tin_tim_kiem_serial.xlsx
+++ b/2.Design/Template/Thong_tin_tim_kiem_serial.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779A2E1A-BD9C-4A6B-8CD9-8018D7EEDCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="340"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,12 +106,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -118,7 +119,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -126,7 +127,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -177,35 +178,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,46 +487,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="19" style="10" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.08984375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -539,100 +540,100 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
